--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XDT$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XDT$11</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>功能模块</t>
   </si>
@@ -41,99 +41,24 @@
     <t>状态</t>
   </si>
   <si>
-    <t>工单</t>
-  </si>
-  <si>
-    <t>销售出库单，打印要显示数据、金额合计；打印明细添加OE显示</t>
-  </si>
-  <si>
-    <t>熊鹰</t>
-  </si>
-  <si>
-    <t>2019.7.01</t>
-  </si>
-  <si>
     <t>洗美的钣喷去掉</t>
   </si>
   <si>
-    <t>莫敏兰</t>
-  </si>
-  <si>
     <t>维修项目选择里面项目分类拉长点</t>
   </si>
   <si>
-    <t>工单明细表添加直接打开操作界面</t>
-  </si>
-  <si>
-    <t>波箱维修，报价单打印，显示不出来厂牌</t>
-  </si>
-  <si>
-    <t>仓库配件审核提醒</t>
-  </si>
-  <si>
-    <t>微信提醒，APP提醒</t>
-  </si>
-  <si>
-    <t>梁升启</t>
-  </si>
-  <si>
-    <t>2019.7.8</t>
-  </si>
-  <si>
-    <t>前台完工提醒</t>
-  </si>
-  <si>
     <t>违章查询</t>
   </si>
   <si>
-    <t>2019.7.14</t>
-  </si>
-  <si>
     <t>保险查询</t>
   </si>
   <si>
-    <t>派工单打印显示配件项目</t>
-  </si>
-  <si>
-    <t>2019.7.02</t>
-  </si>
-  <si>
-    <t>机汽人的库存接入</t>
-  </si>
-  <si>
-    <t>2019.7.13</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>丁龄勃</t>
-  </si>
-  <si>
-    <t>员工账号微信绑定</t>
-  </si>
-  <si>
-    <t>2019.7.1</t>
-  </si>
-  <si>
-    <t>员工编码界面的openId要不可以编辑</t>
-  </si>
-  <si>
     <t>员工管理默认显示在职，微信图标显示</t>
   </si>
   <si>
     <t>客户地址问题</t>
   </si>
   <si>
-    <t>省份城市的显示问题</t>
-  </si>
-  <si>
-    <t>2019.7.04</t>
-  </si>
-  <si>
-    <t>APP调用品牌查询的接口</t>
-  </si>
-  <si>
     <t>年审时间自动计算问题</t>
   </si>
   <si>
@@ -155,21 +80,9 @@
     <t>结算单模版定义</t>
   </si>
   <si>
-    <t>用户管理，到期、禁用后的用户不允许登陆的</t>
-  </si>
-  <si>
-    <t>注册通过后默认7天试用，7天后自动禁用不允许登录</t>
-  </si>
-  <si>
-    <t>数据导入时间段设置</t>
-  </si>
-  <si>
     <t>除系统管理员，只能晚上导入</t>
   </si>
   <si>
-    <t>2019.7.05</t>
-  </si>
-  <si>
     <t>车牌号默认前2位</t>
   </si>
   <si>
@@ -179,100 +92,43 @@
     <t>快捷登录方式自己添加，没有权限的不显示</t>
   </si>
   <si>
-    <t>2019.7.10</t>
-  </si>
-  <si>
     <t>首页客服人员</t>
   </si>
   <si>
     <t>租户配置客服人员，姓名、电话、微信、QQ等</t>
   </si>
   <si>
-    <t>2019.7.08</t>
-  </si>
-  <si>
     <t>系统模块分类</t>
   </si>
   <si>
-    <t>1、常用的，排在前面;2、不常用的 门店管理、配件品牌、配件分类、配件提成、预约参数 放在里面;</t>
-  </si>
-  <si>
     <t>行驶证识别</t>
   </si>
   <si>
-    <t>2019.7.12</t>
-  </si>
-  <si>
     <t>客户积分系统</t>
   </si>
   <si>
-    <t>财务</t>
-  </si>
-  <si>
     <t>预付款的退款</t>
   </si>
   <si>
     <t>预收款的退款</t>
   </si>
   <si>
-    <t>2019.7.03</t>
-  </si>
-  <si>
     <t>微信</t>
   </si>
   <si>
     <t>车主直接在微信端付款</t>
   </si>
   <si>
-    <t>客户</t>
-  </si>
-  <si>
     <t>电销、SA 新建客户，默认营销员、服务顾问是自己</t>
   </si>
   <si>
-    <t>2019.7.3</t>
-  </si>
-  <si>
-    <t>销售</t>
-  </si>
-  <si>
-    <t>PDI检查表添加数据</t>
-  </si>
-  <si>
-    <t>orgid=0</t>
-  </si>
-  <si>
-    <t>2019.7.2</t>
-  </si>
-  <si>
     <t>车辆销售合同的交车时间显示只显示年月日</t>
   </si>
   <si>
-    <t>车辆销售合同的首付款金额打印取值问题</t>
-  </si>
-  <si>
     <t>车辆上牌</t>
   </si>
   <si>
-    <t>库存</t>
-  </si>
-  <si>
     <t>库存条形码、二维码</t>
-  </si>
-  <si>
-    <t>曾史强</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>APP中新增客户信息时注册时间等的绑定问题</t>
-  </si>
-  <si>
-    <t>沈智</t>
-  </si>
-  <si>
-    <t>保险开单改为车险开单</t>
   </si>
   <si>
     <t>官网</t>
@@ -506,23 +362,99 @@
     <t>充值和消费处理，虚拟币（链车币），查询一次EPC扣多少币</t>
   </si>
   <si>
-    <t>2019.07.02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.07.30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.07.23</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.07.31</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓多图上传</t>
+    <t>车间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间调度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间管理统计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间管理明细</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助网站</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>H5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值和消费处理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户积分系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟币（链车币），例查询一次EPC扣多少币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音转文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件使用次数排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>车主直接在微信端付款</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新本租户下的使用次数，orgid=0的不更新,配件管理界面要能手动更新使用次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关接口调用维保接口</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊鹰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁升启</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>维修派工，车检派工</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -530,114 +462,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>2019.7.2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.26</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.29</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.31</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间调度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间管理统计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间管理明细</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌查询接口开发</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件SKU、供应商、保险公司、维修工时项目、套餐、计次卡、储值卡分机构及租户查询优化</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册认证为汽修店、汽配店、汽贸店、汽贸汽修综合店、变速箱维修店</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件SKU 本租户和orgid=0   完成
-供应商  本租户和orgid=0   完成
-保险公司 本店             完成
-维修工时项目 本租户共享和本店，钣喷项目有一份orgid=0的数据
-套餐     本租户共享和本店
-计次卡   本租户共享和本店
-储值卡   本租户共享和本店
-客户车辆 本租户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助网站</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>违章查询</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2019.7.16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
+    <t>仓库，仓位，库存，最近入库日期，最近出库日期，最近供应商</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -645,15 +474,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>充值和消费处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户积分系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟币（链车币），例查询一次EPC扣多少币</t>
+    <t>系统</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,24 +562,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79992065187536243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,36 +674,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1620,10 +1397,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT54"/>
+  <dimension ref="A1:XDT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD64"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1661,965 +1438,255 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>10</v>
+      <c r="A2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43708</v>
       </c>
       <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G2" s="13"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>10</v>
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="12">
+        <v>43683</v>
       </c>
       <c r="F3" s="13"/>
-      <c r="G3" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G3" s="13"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>10</v>
+      <c r="A4" s="15"/>
+      <c r="B4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43700</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G4" s="13"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="25"/>
-      <c r="B5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>10</v>
+      <c r="A5" s="16"/>
+      <c r="B5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="12">
+        <v>43708</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>10</v>
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43693</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>19</v>
+      <c r="A7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="12">
+        <v>43682</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G7" s="13"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="36">
+      <c r="A8" s="16"/>
+      <c r="B8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43679</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="G8" s="13"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>148</v>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43683</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>149</v>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="12">
+        <v>43684</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="108">
-      <c r="A13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>126</v>
-      </c>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="12">
+        <v>43684</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A19" s="25"/>
-      <c r="B19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A20" s="25"/>
-      <c r="B20" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A21" s="25"/>
-      <c r="B21" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A27" s="25"/>
-      <c r="B27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A32" s="25"/>
-      <c r="B32" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A37" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A45" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A46" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A49" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F49" s="13"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A52" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A54" s="23"/>
-      <c r="B54" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XDT54"/>
-  <mergeCells count="7">
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A46:A48"/>
+  <autoFilter ref="A1:XDT16"/>
+  <mergeCells count="5">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2644,320 +1711,320 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19935" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="7月开发计划" sheetId="12" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XDT$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XCM$27</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
   <si>
     <t>功能模块</t>
   </si>
@@ -41,76 +41,122 @@
     <t>状态</t>
   </si>
   <si>
-    <t>洗美的钣喷去掉</t>
-  </si>
-  <si>
-    <t>维修项目选择里面项目分类拉长点</t>
-  </si>
-  <si>
-    <t>违章查询</t>
-  </si>
-  <si>
-    <t>保险查询</t>
-  </si>
-  <si>
-    <t>员工管理默认显示在职，微信图标显示</t>
-  </si>
-  <si>
-    <t>客户地址问题</t>
-  </si>
-  <si>
-    <t>年审时间自动计算问题</t>
-  </si>
-  <si>
-    <t>管理员退出系统的问题</t>
-  </si>
-  <si>
-    <t>注册认证为汽修店、汽配店、汽贸店、汽贸汽修综合店、变速箱维修店</t>
-  </si>
-  <si>
-    <t>租户ID显示问题</t>
-  </si>
-  <si>
-    <t>角色权限初始化</t>
-  </si>
-  <si>
-    <t>新增功能后批量处理权限的问题</t>
-  </si>
-  <si>
-    <t>结算单模版定义</t>
-  </si>
-  <si>
-    <t>除系统管理员，只能晚上导入</t>
-  </si>
-  <si>
-    <t>车牌号默认前2位</t>
-  </si>
-  <si>
-    <t>首页重新设计，没有权限的按钮不显示；</t>
-  </si>
-  <si>
-    <t>快捷登录方式自己添加，没有权限的不显示</t>
-  </si>
-  <si>
-    <t>首页客服人员</t>
-  </si>
-  <si>
-    <t>租户配置客服人员，姓名、电话、微信、QQ等</t>
-  </si>
-  <si>
-    <t>系统模块分类</t>
-  </si>
-  <si>
-    <t>行驶证识别</t>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>短信签名处理</t>
+  </si>
+  <si>
+    <t>莫敏兰</t>
+  </si>
+  <si>
+    <t>汽修云配件模块微服务化</t>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+  </si>
+  <si>
+    <t>帮助网站内容填充</t>
+  </si>
+  <si>
+    <t>前面界面美化</t>
+  </si>
+  <si>
+    <t>熊鹰</t>
+  </si>
+  <si>
+    <t>权限细分到按钮级别</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>EPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相关接口调用维保接口</t>
+    </r>
+  </si>
+  <si>
+    <t>所有查询EPC的接口全部换成新版接口</t>
+  </si>
+  <si>
+    <t>收费模块产品化，在线化</t>
+  </si>
+  <si>
+    <t>EPC\维保大数据\违章\保险\保养查询\IM聊天\微信服务号对接\云呼叫\AI电话机器人\精准营销\车牌号识别\行驶证识别\APP\在线收款</t>
+  </si>
+  <si>
+    <t>充值和消费处理</t>
+  </si>
+  <si>
+    <t>虚拟币（链车币），例查询一次EPC扣多少币</t>
+  </si>
+  <si>
+    <t>导出功能</t>
+  </si>
+  <si>
+    <t>除客户资料外，所有汇总或查询明细功能加上导出</t>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
   </si>
   <si>
     <t>客户积分系统</t>
   </si>
   <si>
-    <t>预付款的退款</t>
-  </si>
-  <si>
-    <t>预收款的退款</t>
+    <t>积分规则、积分调整、积分记录、积分汇总，积分清零，积分抵现</t>
+  </si>
+  <si>
+    <t>工单</t>
+  </si>
+  <si>
+    <t>发送报价单给员工或客户</t>
+  </si>
+  <si>
+    <t>梁升启</t>
   </si>
   <si>
     <t>微信</t>
@@ -119,25 +165,86 @@
     <t>车主直接在微信端付款</t>
   </si>
   <si>
-    <t>电销、SA 新建客户，默认营销员、服务顾问是自己</t>
-  </si>
-  <si>
-    <t>车辆销售合同的交车时间显示只显示年月日</t>
-  </si>
-  <si>
-    <t>车辆上牌</t>
+    <t>配件</t>
   </si>
   <si>
     <t>库存条形码、二维码</t>
   </si>
   <si>
-    <t>官网</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>帮助网站</t>
+    <t>仓库，仓位，库存，最近入库日期，最近出库日期，最近供应商</t>
+  </si>
+  <si>
+    <t>配件出库详情，配件审核状态需要突出显示</t>
+  </si>
+  <si>
+    <t>配件管理新增配件，增加品牌按钮</t>
+  </si>
+  <si>
+    <t>方便仓库人员添加配件品牌</t>
+  </si>
+  <si>
+    <t>对接汽配云的库存</t>
+  </si>
+  <si>
+    <t>查询汽配云的库存</t>
+  </si>
+  <si>
+    <t>配件调拨单</t>
+  </si>
+  <si>
+    <t>调拨申请、调拨受理</t>
+  </si>
+  <si>
+    <t>配件组装与拆分</t>
+  </si>
+  <si>
+    <t>配件配比清单、拆分与合并</t>
+  </si>
+  <si>
+    <t>配件使用次数排序</t>
+  </si>
+  <si>
+    <t>更新本租户下的使用次数，orgid=0的不更新,配件管理界面要能手动更新使用次数</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>客户联系人按客户来源、身份进行统计</t>
+  </si>
+  <si>
+    <t>增加客户报表</t>
+  </si>
+  <si>
+    <t>车间</t>
+  </si>
+  <si>
+    <t>车间调度</t>
+  </si>
+  <si>
+    <t>维修派工，车检派工
+派工、重新派工、开始、中断、完成，查看过程</t>
+  </si>
+  <si>
+    <t>车间管理明细</t>
+  </si>
+  <si>
+    <t>车间管理统计</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>出勤定位</t>
+  </si>
+  <si>
+    <t>沈智</t>
+  </si>
+  <si>
+    <t>库存模块-增加配件报价</t>
+  </si>
+  <si>
+    <t>语音转文字搜索配件或工时名称</t>
   </si>
   <si>
     <t>租户内的各门店：</t>
@@ -191,6 +298,12 @@
     </r>
   </si>
   <si>
+    <t>洗美的钣喷去掉</t>
+  </si>
+  <si>
+    <t>维修项目选择里面项目分类拉长点</t>
+  </si>
+  <si>
     <t>http://mbd.test.harsons.cn/doc.html</t>
   </si>
   <si>
@@ -260,7 +373,19 @@
     <t>PDI检查表orgid=0添加</t>
   </si>
   <si>
+    <t>客户地址问题</t>
+  </si>
+  <si>
+    <t>车辆销售合同的交车时间显示只显示年月日</t>
+  </si>
+  <si>
     <t>首付款金额打印取值问题</t>
+  </si>
+  <si>
+    <t>违章查询</t>
+  </si>
+  <si>
+    <t>保险查询</t>
   </si>
   <si>
     <r>
@@ -311,6 +436,39 @@
     </r>
   </si>
   <si>
+    <t>年审时间自动计算问题</t>
+  </si>
+  <si>
+    <t>预付款的退款</t>
+  </si>
+  <si>
+    <t>预收款的退款</t>
+  </si>
+  <si>
+    <t>车辆上牌</t>
+  </si>
+  <si>
+    <t>管理员退出系统的问题</t>
+  </si>
+  <si>
+    <t>员工管理默认显示在职，微信图标显示</t>
+  </si>
+  <si>
+    <t>注册认证为汽修店、汽配店、汽贸店、汽贸汽修综合店、变速箱维修店</t>
+  </si>
+  <si>
+    <t>租户ID显示问题</t>
+  </si>
+  <si>
+    <t>角色权限初始化</t>
+  </si>
+  <si>
+    <t>新增功能后批量处理权限的问题</t>
+  </si>
+  <si>
+    <t>结算单模版定义</t>
+  </si>
+  <si>
     <t>用户管理，到期、禁用后的用户是不允许登陆的</t>
   </si>
   <si>
@@ -341,12 +499,36 @@
     <t>数据导入时间段设置；</t>
   </si>
   <si>
+    <t>除系统管理员，只能晚上导入</t>
+  </si>
+  <si>
+    <t>车牌号默认前2位</t>
+  </si>
+  <si>
+    <t>首页重新设计，没有权限的按钮不显示；</t>
+  </si>
+  <si>
+    <t>快捷登录方式自己添加，没有权限的不显示</t>
+  </si>
+  <si>
+    <t>首页客服人员</t>
+  </si>
+  <si>
+    <t>租户配置客服人员，姓名、电话、微信、QQ等</t>
+  </si>
+  <si>
+    <t>系统模块分类</t>
+  </si>
+  <si>
     <t>1、常用的，排在前面</t>
   </si>
   <si>
     <t>2、不常用的 门店管理、配件品牌、配件分类、配件提成、预约参数 放在里面</t>
   </si>
   <si>
+    <t>电销、SA 新建客户，默认营销员、服务顾问是自己</t>
+  </si>
+  <si>
     <t>派工单是否打印配件项目；</t>
   </si>
   <si>
@@ -362,124 +544,16 @@
     <t>充值和消费处理，虚拟币（链车币），查询一次EPC扣多少币</t>
   </si>
   <si>
-    <t>车间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间调度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间管理统计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间管理明细</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>行驶证识别</t>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>H5</t>
   </si>
   <si>
     <t>帮助网站</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>H5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值和消费处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户积分系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟币（链车币），例查询一次EPC扣多少币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音转文字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配件使用次数排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>车主直接在微信端付款</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新本租户下的使用次数，orgid=0的不更新,配件管理界面要能手动更新使用次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>EPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关接口调用维保接口</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊鹰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫敏兰</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁升启</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>维修派工，车检派工</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈智</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库，仓位，库存，最近入库日期，最近出库日期，最近供应商</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁龄勃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信签名处理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +572,6 @@
       <sz val="11"/>
       <color rgb="FF393939"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -524,6 +597,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFDF402A"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -537,16 +618,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,7 +634,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,19 +675,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -626,13 +692,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,11 +748,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="30346651"/>
-          <a:ext cx="7530911" cy="4057650"/>
+          <a:off x="38100" y="30346650"/>
+          <a:ext cx="7530465" cy="4057650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,8 +1035,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="34632900"/>
-          <a:ext cx="7591424" cy="4090254"/>
+          <a:off x="0" y="34632900"/>
+          <a:ext cx="7591425" cy="4090035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2" y="38747700"/>
-          <a:ext cx="7610473" cy="4100518"/>
+          <a:off x="0" y="38747700"/>
+          <a:ext cx="7610475" cy="4100195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,8 +1111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="43033951"/>
-          <a:ext cx="7629524" cy="4110783"/>
+          <a:off x="0" y="43033950"/>
+          <a:ext cx="7629525" cy="4110355"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,8 +1149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="47320199"/>
-          <a:ext cx="7658100" cy="4126179"/>
+          <a:off x="0" y="47319565"/>
+          <a:ext cx="7658100" cy="4126230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,8 +1187,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="54006750"/>
-          <a:ext cx="9631786" cy="4286250"/>
+          <a:off x="0" y="54006750"/>
+          <a:ext cx="9631680" cy="4286250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,10 +1488,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XDT16"/>
+  <dimension ref="A1:XCM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1411,10 +1502,10 @@
     <col min="4" max="4" width="11.125" style="8" customWidth="1"/>
     <col min="5" max="6" width="12.625" style="8" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
-    <col min="8" max="16348" width="9" style="5"/>
+    <col min="8" max="16315" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="39.6" customHeight="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1437,260 +1528,441 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>97</v>
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A2" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="C2" s="12"/>
       <c r="D2" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="12">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13">
         <v>43708</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A3" s="18"/>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16">
+        <v>43708</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13">
+        <v>43708</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A5" s="18"/>
+      <c r="B5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13">
+        <v>43692</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13">
+        <v>43708</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="25.5">
+      <c r="A7" s="18"/>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13">
         <v>43683</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="51">
+      <c r="A8" s="18"/>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13">
         <v>43700</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="25.5">
+      <c r="A9" s="18"/>
+      <c r="B9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13">
+        <v>43700</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="25.5">
+      <c r="A10" s="18"/>
+      <c r="B10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="25.5">
+      <c r="A11" s="19"/>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13">
         <v>43708</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43687</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C13" s="12"/>
+      <c r="D13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="13">
         <v>43693</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="24">
+      <c r="A14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="13">
         <v>43682</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="36">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="12">
-        <v>43679</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="12">
-        <v>43683</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="12">
-        <v>43684</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="12">
-        <v>43684</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A15" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="24">
+      <c r="A15" s="18"/>
       <c r="B15" s="11" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A16" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43679</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A16" s="18"/>
       <c r="B16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43693</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A17" s="18"/>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43708</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A18" s="18"/>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43693</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="13.5">
+      <c r="A19" s="18"/>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43708</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="36">
+      <c r="A20" s="19"/>
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43679</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="24">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43682</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="36">
+      <c r="A22" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43683</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13">
+        <v>43684</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="13.5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43684</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5">
+      <c r="A25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43680</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5">
+      <c r="A27" s="19"/>
+      <c r="B27" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XDT16"/>
-  <mergeCells count="5">
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A12:A13"/>
+  <autoFilter ref="A1:XCM27"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1711,324 +1983,324 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -619,7 +619,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,6 +641,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,6 +786,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1490,8 +1520,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XCM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1605,16 +1635,16 @@
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A7" s="18"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="25">
         <v>43683</v>
       </c>
       <c r="F7" s="12"/>
@@ -1656,16 +1686,16 @@
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="25.5">
       <c r="A10" s="18"/>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="12"/>
@@ -1743,14 +1773,14 @@
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="24">
       <c r="A15" s="18"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="23">
         <v>43679</v>
       </c>
       <c r="F15" s="12"/>
@@ -1792,16 +1822,16 @@
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="13.5">
       <c r="A18" s="18"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="25">
         <v>43693</v>
       </c>
       <c r="F18" s="12"/>
@@ -1826,16 +1856,16 @@
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="36">
       <c r="A20" s="19"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="23">
         <v>43679</v>
       </c>
       <c r="F20" s="12"/>
@@ -1864,16 +1894,16 @@
       <c r="A22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="23">
         <v>43683</v>
       </c>
       <c r="F22" s="12"/>
@@ -1881,14 +1911,14 @@
     </row>
     <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="18"/>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="23">
         <v>43684</v>
       </c>
       <c r="F23" s="12"/>
@@ -1896,14 +1926,14 @@
     </row>
     <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="19"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="23">
         <v>43684</v>
       </c>
       <c r="F24" s="11"/>
@@ -1926,14 +1956,14 @@
     </row>
     <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="18"/>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="23">
         <v>43680</v>
       </c>
       <c r="F26" s="11"/>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eos\DMS\DOC\开发计划\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A012A293-43F1-4C74-9C0B-F7E32DCA1663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="4560" yWindow="492" windowWidth="12636" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7月开发计划" sheetId="12" r:id="rId1"/>
@@ -14,11 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XCM$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
   <si>
     <t>功能模块</t>
   </si>
@@ -555,12 +562,16 @@
   <si>
     <t>帮助网站</t>
   </si>
+  <si>
+    <t>沈智</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,12 +651,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -653,6 +658,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,44 +777,44 @@
     <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,7 +843,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -840,6 +851,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -862,7 +876,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -900,7 +920,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -938,7 +964,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -976,7 +1008,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1014,7 +1052,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1052,7 +1096,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1090,7 +1140,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1128,7 +1184,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1166,7 +1228,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1204,7 +1272,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1273,7 +1347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1306,9 +1380,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1341,6 +1432,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1516,26 +1624,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XCM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="8" customWidth="1"/>
-    <col min="5" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="8" customWidth="1"/>
+    <col min="5" max="6" width="12.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="7" customWidth="1"/>
     <col min="8" max="16315" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1558,8 +1666,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1575,23 +1683,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="21">
         <v>43708</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A4" s="18"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1603,8 +1711,8 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
@@ -1618,107 +1726,107 @@
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="23">
         <v>43708</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="25.5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="19">
         <v>43683</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="51">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="23">
         <v>43700</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="25.5">
-      <c r="A9" s="18"/>
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="23">
         <v>43700</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="25.5">
-      <c r="A10" s="18"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="17" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="25.5">
-      <c r="A11" s="19"/>
-      <c r="B11" s="12" t="s">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="23">
         <v>43708</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="13.5">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -1735,8 +1843,8 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="12" t="s">
@@ -1752,8 +1860,8 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="24">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1771,23 +1879,23 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="24">
-      <c r="A15" s="18"/>
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <v>43679</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="11" t="s">
         <v>36</v>
       </c>
@@ -1803,8 +1911,8 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
@@ -1820,58 +1928,58 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="19">
         <v>43693</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="13.5">
-      <c r="A19" s="18"/>
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="23">
         <v>43708</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="36">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="17">
         <v>43679</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="24">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>46</v>
       </c>
@@ -1890,57 +1998,57 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="36">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="17">
         <v>43683</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22" t="s">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <v>43684</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22" t="s">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="17">
         <v>43684</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
-      <c r="A25" s="20" t="s">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -1948,29 +2056,29 @@
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
-      <c r="A26" s="18"/>
-      <c r="B26" s="22" t="s">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="17">
         <v>43680</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
       <c r="B27" s="11" t="s">
         <v>58</v>
       </c>
@@ -1983,7 +2091,7 @@
       <c r="G27" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XCM27"/>
+  <autoFilter ref="A1:XCM27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A14:A20"/>
@@ -1992,12 +2100,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E175"/>
   <sheetViews>
@@ -2005,53 +2113,53 @@
       <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2059,272 +2167,272 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>119</v>
       </c>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\eos\DMS\DOC\开发计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A012A293-43F1-4C74-9C0B-F7E32DCA1663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="492" windowWidth="12636" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="492" windowWidth="12636" windowHeight="11304"/>
   </bookViews>
   <sheets>
     <sheet name="7月开发计划" sheetId="12" r:id="rId1"/>
@@ -20,7 +14,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XCM$27</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -64,9 +57,6 @@
   </si>
   <si>
     <t>帮助网站内容填充</t>
-  </si>
-  <si>
-    <t>前面界面美化</t>
   </si>
   <si>
     <t>熊鹰</t>
@@ -97,12 +87,6 @@
   </si>
   <si>
     <t>所有查询EPC的接口全部换成新版接口</t>
-  </si>
-  <si>
-    <t>收费模块产品化，在线化</t>
-  </si>
-  <si>
-    <t>EPC\维保大数据\违章\保险\保养查询\IM聊天\微信服务号对接\云呼叫\AI电话机器人\精准营销\车牌号识别\行驶证识别\APP\在线收款</t>
   </si>
   <si>
     <t>充值和消费处理</t>
@@ -184,9 +168,6 @@
     <t>配件出库详情，配件审核状态需要突出显示</t>
   </si>
   <si>
-    <t>配件管理新增配件，增加品牌按钮</t>
-  </si>
-  <si>
     <t>方便仓库人员添加配件品牌</t>
   </si>
   <si>
@@ -566,12 +547,28 @@
     <t>沈智</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>配件管理新增配件，增加品牌按钮</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPC\维保大数据\违章\保险\保养查询\IM聊天\微信服务号对接\云呼叫\AI电话机器人\精准营销\车牌号识别\行驶证识别\APP\在线收款</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费模块产品化，在线化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>前面界面美化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,7 +731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,9 +790,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,7 +837,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -879,7 +873,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -923,7 +917,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +961,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1005,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1049,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1093,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1137,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,7 +1181,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1225,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1269,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1380,26 +1374,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1432,23 +1409,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1624,15 +1584,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XCM27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18.77734375" style="7" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" style="8" customWidth="1"/>
@@ -1643,7 +1603,7 @@
     <col min="8" max="16315" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="39.6" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1666,8 +1626,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1683,23 +1643,23 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:7" s="6" customFormat="1" ht="14.4">
+      <c r="A3" s="23"/>
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <v>43708</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+    <row r="4" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A4" s="23"/>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1711,131 +1671,131 @@
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="E5" s="17">
         <v>43692</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="21" t="s">
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>43708</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A7" s="23"/>
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="17">
         <v>43683</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="21" t="s">
+    <row r="8" spans="1:7" s="6" customFormat="1" ht="75">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>43700</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="21" t="s">
+    <row r="9" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>43700</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:7" s="6" customFormat="1" ht="30">
+      <c r="A10" s="23"/>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="21" t="s">
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="45">
+      <c r="A11" s="24"/>
+      <c r="B11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>43708</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A12" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="13">
         <v>43687</v>
@@ -1843,16 +1803,16 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E13" s="13">
         <v>43693</v>
@@ -1860,33 +1820,33 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="13">
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="36">
+      <c r="A14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17">
         <v>43682</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="24">
+      <c r="A15" s="23"/>
       <c r="B15" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="17">
         <v>43679</v>
@@ -1894,13 +1854,13 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:7" s="6" customFormat="1" ht="24">
+      <c r="A16" s="23"/>
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>9</v>
@@ -1911,13 +1871,13 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A17" s="23"/>
       <c r="B17" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>9</v>
@@ -1928,13 +1888,13 @@
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A18" s="23"/>
       <c r="B18" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>9</v>
@@ -1945,33 +1905,33 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="21" t="s">
+    <row r="19" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A19" s="23"/>
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>43708</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="36">
+      <c r="A20" s="24"/>
       <c r="B20" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="17">
         <v>43679</v>
@@ -1979,18 +1939,18 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="24">
       <c r="A21" s="10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="13">
         <v>43682</v>
@@ -1998,15 +1958,15 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>49</v>
+    <row r="22" spans="1:7" ht="36">
+      <c r="A22" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>9</v>
@@ -2017,10 +1977,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
+    <row r="23" spans="1:7" ht="15">
+      <c r="A23" s="23"/>
       <c r="B23" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
@@ -2032,10 +1992,10 @@
       <c r="F23" s="12"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:7" ht="15">
+      <c r="A24" s="24"/>
       <c r="B24" s="16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
@@ -2047,29 +2007,29 @@
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>54</v>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="23"/>
       <c r="B26" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E26" s="17">
         <v>43680</v>
@@ -2077,21 +2037,21 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+    <row r="27" spans="1:7" ht="24">
+      <c r="A27" s="24"/>
       <c r="B27" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XCM27" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:XCM27"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A14:A20"/>
@@ -2105,7 +2065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E175"/>
   <sheetViews>
@@ -2113,328 +2073,328 @@
       <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+    <row r="135" spans="1:1">
+      <c r="A135" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+    <row r="137" spans="1:1">
+      <c r="A137" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+    <row r="142" spans="1:1">
+      <c r="A142" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+    <row r="143" spans="1:1">
+      <c r="A143" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+    <row r="145" spans="1:1">
+      <c r="A145" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+    <row r="147" spans="1:1">
+      <c r="A147" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+    <row r="148" spans="1:1">
+      <c r="A148" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
+    <row r="151" spans="1:1">
+      <c r="A151" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+    <row r="153" spans="1:1">
+      <c r="A153" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+    <row r="154" spans="1:1">
+      <c r="A154" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+    <row r="155" spans="1:1">
+      <c r="A155" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+    <row r="157" spans="1:1">
+      <c r="A157" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
+    <row r="159" spans="1:1">
+      <c r="A159" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+    <row r="160" spans="1:1">
+      <c r="A160" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+    <row r="162" spans="1:1">
+      <c r="A162" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+    <row r="163" spans="1:1">
+      <c r="A163" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+    <row r="165" spans="1:1">
+      <c r="A165" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+    <row r="167" spans="1:1">
+      <c r="A167" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="3" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XCM$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7月开发计划'!$A$1:$XCM$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="122">
   <si>
     <t>功能模块</t>
   </si>
@@ -561,6 +561,10 @@
   </si>
   <si>
     <t>前面界面美化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单反结算处理</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +877,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +921,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,7 +965,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1005,7 +1009,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1053,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1097,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1137,7 +1141,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,7 +1185,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1225,7 +1229,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1273,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,10 +1590,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:XCM27"/>
+  <dimension ref="A1:XCM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1720,16 +1724,16 @@
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="75">
       <c r="A8" s="23"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="17">
         <v>43700</v>
       </c>
       <c r="F8" s="12"/>
@@ -1737,16 +1741,16 @@
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="30">
       <c r="A9" s="23"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="17">
         <v>43700</v>
       </c>
       <c r="F9" s="12"/>
@@ -1787,7 +1791,7 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -1804,198 +1808,194 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A13" s="14" t="s">
-        <v>27</v>
-      </c>
+      <c r="A13" s="24"/>
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="13">
-        <v>43693</v>
-      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" ht="36">
-      <c r="A14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="17">
-        <v>43682</v>
+    <row r="14" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A14" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43693</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" ht="24">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:7" s="6" customFormat="1" ht="36">
+      <c r="A15" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="B15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="17">
-        <v>43679</v>
+        <v>43682</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="24">
       <c r="A16" s="23"/>
-      <c r="B16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="13">
-        <v>43693</v>
+      <c r="B16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="17">
+        <v>43679</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" ht="15">
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="24">
       <c r="A17" s="23"/>
       <c r="B17" s="11" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="13">
-        <v>43708</v>
+        <v>43693</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A18" s="23"/>
-      <c r="B18" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="18" t="s">
+      <c r="B18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="19">
-        <v>43693</v>
+      <c r="E18" s="13">
+        <v>43708</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A19" s="23"/>
-      <c r="B19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="B19" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="22">
-        <v>43708</v>
+      <c r="E19" s="19">
+        <v>43693</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" ht="36">
-      <c r="A20" s="24"/>
-      <c r="B20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="17">
-        <v>43679</v>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="15">
+      <c r="A20" s="23"/>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="22">
+        <v>43708</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="6" customFormat="1" ht="24">
-      <c r="A21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="13">
-        <v>43682</v>
+    <row r="21" spans="1:7" s="6" customFormat="1" ht="36">
+      <c r="A21" s="24"/>
+      <c r="B21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="17">
+        <v>43679</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="36">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="24">
+      <c r="A22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43682</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="36">
+      <c r="A23" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="17">
-        <v>43683</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="16"/>
       <c r="D23" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="17">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
@@ -2004,59 +2004,75 @@
       <c r="E24" s="17">
         <v>43684</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="17">
+        <v>43684</v>
+      </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="23"/>
-      <c r="B26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="17">
-        <v>43680</v>
-      </c>
+      <c r="A26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" ht="24">
-      <c r="A27" s="24"/>
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="23"/>
+      <c r="B27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="17">
+        <v>43680</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="24">
+      <c r="A28" s="24"/>
+      <c r="B28" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:XCM27"/>
-  <mergeCells count="4">
+  <autoFilter ref="A1:XCM28"/>
+  <mergeCells count="5">
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -877,7 +877,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +921,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +1009,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1097,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1141,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1185,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1229,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1273,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
   <dimension ref="A1:XCM28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1692,14 +1692,14 @@
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A6" s="23"/>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="17">
         <v>43708</v>
       </c>
       <c r="F6" s="12"/>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -877,7 +877,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +921,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +965,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +1009,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1053,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1097,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1141,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1185,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1229,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1273,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
   <dimension ref="A1:XCM28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1809,12 +1809,12 @@
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A13" s="24"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>

--- a/DOC/开发计划/DMS开发计划-20190801.xlsx
+++ b/DOC/开发计划/DMS开发计划-20190801.xlsx
@@ -138,9 +138,6 @@
     <t>客户积分系统</t>
   </si>
   <si>
-    <t>积分规则、积分调整、积分记录、积分汇总，积分清零，积分抵现</t>
-  </si>
-  <si>
     <t>工单</t>
   </si>
   <si>
@@ -565,6 +562,10 @@
   </si>
   <si>
     <t>工单反结算处理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分规则、积分调整、积分记录、积分汇总，积分清零，积分抵现</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -658,13 +659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,26 +794,26 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="58" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -877,7 +878,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -921,7 +922,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -965,7 +966,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1009,7 +1010,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1054,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,7 +1098,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1141,7 +1142,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1186,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1230,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1274,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,8 +1593,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XCM28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E18" sqref="B17:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -1631,7 +1632,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1648,22 +1649,22 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="14.4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>43708</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1676,9 +1677,9 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16" t="s">
@@ -1691,7 +1692,7 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1707,7 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
@@ -1723,12 +1724,12 @@
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="75">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>11</v>
@@ -1740,7 +1741,7 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
@@ -1757,7 +1758,7 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="30">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
@@ -1774,32 +1775,32 @@
       <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="45">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>43708</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="13">
         <v>43687</v>
@@ -1808,9 +1809,9 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A13" s="24"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
@@ -1820,14 +1821,14 @@
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="15">
       <c r="A14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="13">
         <v>43693</v>
@@ -1836,14 +1837,14 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" ht="36">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>13</v>
@@ -1855,9 +1856,9 @@
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:7" s="6" customFormat="1" ht="24">
-      <c r="A16" s="23"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16" t="s">
@@ -1870,12 +1871,12 @@
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" ht="24">
-      <c r="A17" s="23"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>9</v>
@@ -1887,12 +1888,12 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>9</v>
@@ -1904,46 +1905,46 @@
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="25">
         <v>43693</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" s="6" customFormat="1" ht="15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="25">
         <v>43708</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="36">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>13</v>
@@ -1956,16 +1957,16 @@
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="24">
       <c r="A22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="D22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="13">
         <v>43682</v>
@@ -1974,14 +1975,14 @@
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="36">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>9</v>
@@ -1993,9 +1994,9 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="16" t="s">
@@ -2008,9 +2009,9 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="24"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16" t="s">
@@ -2023,28 +2024,28 @@
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="23"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="17">
         <v>43680</v>
@@ -2053,13 +2054,13 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="24">
-      <c r="A28" s="24"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="12"/>
@@ -2097,300 +2098,300 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -2400,17 +2401,17 @@
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
